--- a/Logging_Niels.xlsx
+++ b/Logging_Niels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11702349\Documents\UHasselt\schakeljaar\SE\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6C8C1-92BB-6D49-A907-7B1AFA6F8206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142EC1D6-A955-4993-93B5-4443B6920E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List Fabio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
   <si>
     <t>TASK</t>
   </si>
@@ -152,6 +152,63 @@
   </si>
   <si>
     <t>kritiek implementeren</t>
+  </si>
+  <si>
+    <t>Project vms analyse same met Wouter</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>Maken Mockups VMS</t>
+  </si>
+  <si>
+    <t>Project VMS presentatie met Wouter</t>
+  </si>
+  <si>
+    <t>project omschrijving en URPS en use cases en Effort</t>
+  </si>
+  <si>
+    <t>Maken van de presentatie versie 1</t>
+  </si>
+  <si>
+    <t>project omschrijving, effort, tech</t>
+  </si>
+  <si>
+    <t>Presentatie geven</t>
+  </si>
+  <si>
+    <t>Presentatie geven op punten</t>
+  </si>
+  <si>
+    <t>Meeting team na presentatie voor feedback</t>
+  </si>
+  <si>
+    <t>Scope herbepalen,  verlengen van het veeteelt project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting team taakverdeling en use cases </t>
+  </si>
+  <si>
+    <t>Brainstormen  de nieuwe &gt; scope, rollen, taken en use cases noteren voor de uitgebreide scope veeteelt</t>
+  </si>
+  <si>
+    <t>Presentatie VMS </t>
+  </si>
+  <si>
+    <t>Use cases VMS updaten voor nieuwe scope</t>
+  </si>
+  <si>
+    <t>Mockups VMS updaten voor nieuwe scope</t>
+  </si>
+  <si>
+    <t>Presentatie inoefenen</t>
+  </si>
+  <si>
+    <t>analyses voor de 3 projecten nakijken</t>
+  </si>
+  <si>
+    <t>TASK LIST SOFTWARE ENGINEERING Groep-10: &lt;Niels De Cat:1643420&gt;</t>
   </si>
 </sst>
 </file>
@@ -382,10 +439,111 @@
     <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -404,100 +562,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -644,20 +708,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To-do list" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
     <tableStyle name="To-do list" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -679,8 +743,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="0" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -699,8 +763,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="9" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -712,15 +776,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A55F6466-A8C0-E845-A98A-005796B9C6EF}" name="ToDoList3" displayName="ToDoList3" ref="B2:H13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A55F6466-A8C0-E845-A98A-005796B9C6EF}" name="ToDoList3" displayName="ToDoList3" ref="B2:H19" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E58862E8-2D0A-0546-9CC6-9B48957A1549}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{D5DB8EA3-F85A-B54C-84BB-0121A0A62E19}" name="PRIORITY "/>
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="6" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -739,8 +803,8 @@
     <tableColumn id="4" xr3:uid="{56B4C51E-0B8E-304C-89EC-F36DDC7218F6}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{49E9A012-34F6-134D-83DD-762339356686}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{BF7252B0-8FCB-B64F-B151-CF8CACBD611D}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="3" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -984,19 +1048,19 @@
   </sheetPr>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1283,7 +1347,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13:F13">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1333,15 +1397,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1394,11 +1458,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44168</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1420,11 +1484,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44138</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1442,11 +1506,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44145</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44155</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1511,7 +1575,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1555,26 +1619,26 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
       <c r="B1" s="10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1611,151 +1675,367 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <f ca="1">TODAY()</f>
-        <v>44135</v>
-      </c>
-      <c r="F3" s="2">
-        <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44120</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44120</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList3[HOURS WORKED])</f>
-        <v>106</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44126</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44126</v>
+      </c>
+      <c r="G4" s="13">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44130</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44130</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44132</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12">
+        <v>44134</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>44133</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44133</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44134</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44134</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12">
+        <v>44135</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44135</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44138</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44138</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44137</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44137</v>
+      </c>
+      <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12">
+        <v>44139</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44139</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44139</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44139</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44141</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44141</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">TODAY()-30</f>
-        <v>44105</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44146</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44146</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44146</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44146</v>
+      </c>
+      <c r="G17" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <f ca="1">TODAY()-23</f>
-        <v>44112</v>
-      </c>
-      <c r="F5" s="2">
-        <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
-      <formula1>F3&gt;=E3</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
-      <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
-      <formula1>"Low, Normal, High"</formula1>
-    </dataValidation>
+  <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{C5BD1BE2-536E-B048-8D9F-A3E4D7B3A527}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{CFD28C58-3A38-D548-870A-87DDF91A279F}"/>
@@ -1763,6 +2043,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entries" sqref="B2" xr:uid="{8B48B90D-860E-CF43-8DB8-0703A91D3707}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B1" xr:uid="{F78476F1-BD55-F34E-96F6-CF41FC1DCCFA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list with progress tracker in this worksheet" sqref="A1" xr:uid="{13CE5110-A7BD-7C4B-A0EC-2B1B9884310A}"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G13:G19" xr:uid="{04E9ED93-0498-4F19-B216-C489318283EA}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D19" xr:uid="{B8CBA699-E1FE-45B0-A0EE-F2A547197A28}">
+      <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C13:C19" xr:uid="{568C69D9-9D86-47CB-AF50-7E0F7640956B}">
+      <formula1>"Low, Normal, High"</formula1>
+    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1789,15 +2078,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1850,11 +2139,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44168</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1876,11 +2165,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44138</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1898,11 +2187,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44145</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44155</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1967,7 +2256,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
